--- a/diet_provider/recipes.xlsx
+++ b/diet_provider/recipes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\Desktop\programming\portfolio\Health_App\diet_provider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE85E50B-53EF-49E6-A016-C6C4150ECE0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290E85F7-56B4-4BD8-8196-C07EBF966796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7992" yWindow="2700" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2700" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Recipe</t>
   </si>
@@ -92,10 +92,16 @@
     <t>1 Salmon fillet, 1 Naan, 4 cups of Spinach</t>
   </si>
   <si>
-    <t>1 can of Tuna, 1/2 cup of Quinoa, 3 tbsps Chia, 1 tbsp of Mayo, 1 tbsp soy sauce</t>
-  </si>
-  <si>
     <t>Dinner</t>
+  </si>
+  <si>
+    <t>1 can of Tuna, 1/2 cup of Quinoa, 3 tbsps Chia, 1 tbsp of Mayo, 1 tbsp soy sauce, 1/2 pouch vegetable medley</t>
+  </si>
+  <si>
+    <t>Tilapia w/ Broccoli</t>
+  </si>
+  <si>
+    <t>2 tilapia fillets, 1/2 pouch of broccoli, 1 tbsp olive oil</t>
   </si>
 </sst>
 </file>
@@ -413,17 +419,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="91.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -546,22 +552,45 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>680</v>
+        <v>760</v>
       </c>
       <c r="C6">
         <v>26</v>
       </c>
       <c r="D6">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>400</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>47</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
         <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
